--- a/php/estadisticas_uo288066.xlsx
+++ b/php/estadisticas_uo288066.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sew2526\php\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67ADCEF-1622-468D-A3B2-16967447EF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A0AAA7-2346-41AC-9BE5-03D883788C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13749" activeTab="4" xr2:uid="{EDA6C373-C3B0-4FB2-93F3-0BDE48218607}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13749" xr2:uid="{EDA6C373-C3B0-4FB2-93F3-0BDE48218607}"/>
   </bookViews>
   <sheets>
     <sheet name="uo288066_db_resultados" sheetId="15" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name="stats_general" sheetId="16" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="DatosExternos_2" localSheetId="1" hidden="1">uo288066_db_usuarios!$A$1:$D$5</definedName>
-    <definedName name="DatosExternos_3" localSheetId="0" hidden="1">uo288066_db_resultados!$A$1:$E$5</definedName>
+    <definedName name="DatosExternos_2" localSheetId="1" hidden="1">uo288066_db_usuarios!$A$1:$D$7</definedName>
+    <definedName name="DatosExternos_3" localSheetId="0" hidden="1">uo288066_db_resultados!$A$1:$E$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="46">
   <si>
     <t>id_dispositivo</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>DATOS NORMALIZADOS PARA GRÁFICAS</t>
+  </si>
+  <si>
+    <t>Tecnico electrico</t>
   </si>
 </sst>
 </file>
@@ -852,7 +855,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -898,6 +901,87 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="12" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="12" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="12" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -919,32 +1003,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="12" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="12" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -954,48 +1018,42 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="12" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1014,74 +1072,16 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1767,16 +1767,16 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2065,10 +2065,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2480,10 +2480,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -5078,13 +5078,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -5862,16 +5862,16 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6349,13 +6349,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -6725,16 +6725,16 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7023,10 +7023,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.25</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.75</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -7438,10 +7438,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.25</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.75</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -7761,7 +7761,7 @@
                   <c:v>39.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>113.33333333333333</c:v>
+                  <c:v>223.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -8069,7 +8069,7 @@
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -8123,19 +8123,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.16355140186915887</c:v>
+                  <c:v>0.10574018126888217</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.20560747663551401</c:v>
+                  <c:v>0.13293051359516617</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.58878504672897192</c:v>
+                  <c:v>0.38066465256797583</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.6465256797583081</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -9747,6 +9747,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0E2E-4344-8D75-4A72FD470911}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -9762,6 +9767,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0E2E-4344-8D75-4A72FD470911}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -9779,6 +9789,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-0E2E-4344-8D75-4A72FD470911}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -10181,10 +10196,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -10570,16 +10585,16 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11060,10 +11075,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -26115,8 +26130,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{090A11DA-3DC4-4479-93A8-B2EB74B38953}" name="uo288066_db_resultados" displayName="uo288066_db_resultados" ref="A1:E5" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E5" xr:uid="{090A11DA-3DC4-4479-93A8-B2EB74B38953}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{090A11DA-3DC4-4479-93A8-B2EB74B38953}" name="uo288066_db_resultados" displayName="uo288066_db_resultados" ref="A1:E6" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E6" xr:uid="{090A11DA-3DC4-4479-93A8-B2EB74B38953}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{2DA7FD6E-7A96-4693-BF15-6F33DB60B921}" uniqueName="1" name="id_resultado" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{9645DF9B-B78C-4364-850A-2E433C1B17C6}" uniqueName="2" name="id_usuario" queryTableFieldId="2"/>
@@ -26129,8 +26144,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{440EDCFA-7890-4270-AD46-DD0F0B2106D8}" name="uo288066_db_usuarios" displayName="uo288066_db_usuarios" ref="A1:E5" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E5" xr:uid="{440EDCFA-7890-4270-AD46-DD0F0B2106D8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{440EDCFA-7890-4270-AD46-DD0F0B2106D8}" name="uo288066_db_usuarios" displayName="uo288066_db_usuarios" ref="A1:E7" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E7" xr:uid="{440EDCFA-7890-4270-AD46-DD0F0B2106D8}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{B6D5A063-AFA8-4401-B707-6013B3A55081}" uniqueName="1" name="id_usuario" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{70EDC26F-AF9E-4370-A432-476F281F9C80}" uniqueName="2" name="profesion" queryTableFieldId="2" dataDxfId="1"/>
@@ -26459,10 +26474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D35FF4-9EB2-46CA-A15D-A2D625484CEA}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -26559,6 +26574,23 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>331</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -26569,10 +26601,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C31B391-5468-487D-AA61-0CD33665D67E}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -26604,13 +26636,13 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" t="s">
         <v>25</v>
       </c>
       <c r="C2">
         <v>22</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" t="s">
         <v>26</v>
       </c>
       <c r="E2">
@@ -26621,13 +26653,13 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" t="s">
         <v>25</v>
       </c>
       <c r="C3">
         <v>22</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" t="s">
         <v>26</v>
       </c>
       <c r="E3">
@@ -26638,13 +26670,13 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="C4">
         <v>57</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" t="s">
         <v>28</v>
       </c>
       <c r="E4">
@@ -26655,18 +26687,39 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" t="s">
         <v>29</v>
       </c>
       <c r="C5">
         <v>35</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
         <v>6</v>
       </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
+        <v>62</v>
+      </c>
+      <c r="D6" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="103"/>
+      <c r="D7" s="103"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26680,8 +26733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A429ADC7-E980-4738-9823-534CA85CF0F9}">
   <dimension ref="B1:R45"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U9" sqref="U8:U9"/>
+    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -26700,49 +26753,49 @@
         <f>AVERAGE(uo288066_db_usuarios!C2:C3)</f>
         <v>22</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="41"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="30"/>
     </row>
     <row r="3" spans="2:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I3" s="42"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="44"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="33"/>
     </row>
     <row r="4" spans="2:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="44"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="72"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="33"/>
     </row>
     <row r="5" spans="2:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
@@ -26763,19 +26816,19 @@
       <c r="G5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="42"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="44"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="33"/>
     </row>
     <row r="6" spans="2:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="17">
@@ -26786,7 +26839,7 @@
         <f>COUNTIFS(uo288066_db_usuarios!C2:C3,"&gt;20", uo288066_db_usuarios!C2:C3,"&lt;=30")</f>
         <v>2</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6">
         <f>COUNTIFS(uo288066_db_usuarios!C2:C3,"&gt;30", uo288066_db_usuarios!C2:C3,"&lt;=40")</f>
         <v>0</v>
       </c>
@@ -26798,99 +26851,99 @@
         <f>COUNTIF(uo288066_db_usuarios!C2:C3,"&gt;65")</f>
         <v>0</v>
       </c>
-      <c r="I6" s="42"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="44"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="33"/>
     </row>
     <row r="7" spans="2:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="26">
         <f t="shared" ref="C7:F7" si="0" xml:space="preserve"> C6/($C$6+$D$6+$E$6+$F$6+$G$6)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="58">
+      <c r="D7" s="44">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E7" s="58">
+      <c r="E7" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="58">
+      <c r="F7" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="58">
+      <c r="G7" s="44">
         <f xml:space="preserve"> G6/($C$6+$D$6+$E$6+$F$6+$G$6)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="44"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="33"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I8" s="42"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="44"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="33"/>
     </row>
     <row r="9" spans="2:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I9" s="42"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="44"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="33"/>
     </row>
     <row r="10" spans="2:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="44"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="75"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="33"/>
     </row>
     <row r="11" spans="2:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="40" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -26902,22 +26955,22 @@
       <c r="F11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="42"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="44"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="33"/>
     </row>
     <row r="12" spans="2:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="55">
+      <c r="C12" s="41">
         <f>COUNTIF(uo288066_db_usuarios!E2:E3,"&lt;=3")</f>
         <v>0</v>
       </c>
@@ -26933,476 +26986,476 @@
         <f>COUNTIFS(uo288066_db_usuarios!E2:E3,"&gt;7", uo288066_db_usuarios!E2:E3,"&lt;=10")</f>
         <v>2</v>
       </c>
-      <c r="I12" s="42"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="44"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="33"/>
     </row>
     <row r="13" spans="2:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="51">
+      <c r="C13" s="37">
         <f t="shared" ref="C13:E13" si="1" xml:space="preserve"> C12/($C$12+$D$12+$E$12+$F$12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="52">
+      <c r="D13" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E13" s="52">
+      <c r="E13" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F13" s="53">
+      <c r="F13" s="39">
         <f xml:space="preserve"> F12/($C$12+$D$12+$E$12+$F$12)</f>
         <v>1</v>
       </c>
-      <c r="I13" s="42"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="44"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="33"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C14" s="20"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="44"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="33"/>
     </row>
     <row r="15" spans="2:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I15" s="42"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="44"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="33"/>
     </row>
     <row r="16" spans="2:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="28"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="44"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="78"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="33"/>
     </row>
     <row r="17" spans="2:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="22" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="42"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="44"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="33"/>
     </row>
     <row r="18" spans="2:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="38">
+      <c r="C18" s="27">
         <f>COUNTIF(uo288066_db_usuarios!D2:D3, "Femenino")</f>
         <v>0</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D18" s="23">
         <f>COUNTIF(uo288066_db_usuarios!D2:D3, "Masculino")</f>
         <v>2</v>
       </c>
-      <c r="E18" s="31" cm="1">
+      <c r="E18" s="21" cm="1">
         <f t="array" ref="E18">COUNTIF(uo288066_db_usuarios!D2:D3, Otro)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="42"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="44"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="33"/>
     </row>
     <row r="19" spans="2:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C19" s="24">
         <f t="shared" ref="C19:D19" si="2" xml:space="preserve"> C18/($C$18+$D$18+$E$18)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="59">
+      <c r="D19" s="45">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E19" s="35">
+      <c r="E19" s="25">
         <f xml:space="preserve"> E18/($C$18+$D$18+$E$18)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="42"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="44"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="33"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I20" s="42"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="44"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="33"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I21" s="42"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="44"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="33"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I22" s="42"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="44"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="33"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I23" s="42"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="44"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="33"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I24" s="42"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="44"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="33"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I25" s="42"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="44"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="33"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I26" s="42"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="44"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="33"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I27" s="42"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="44"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="33"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I28" s="42"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43"/>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="44"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="33"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I29" s="42"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="44"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="33"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I30" s="42"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="44"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="33"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I31" s="42"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="44"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="33"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I32" s="42"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="44"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="33"/>
     </row>
     <row r="33" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I33" s="42"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="43"/>
-      <c r="Q33" s="43"/>
-      <c r="R33" s="44"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="33"/>
     </row>
     <row r="34" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I34" s="42"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="43"/>
-      <c r="Q34" s="43"/>
-      <c r="R34" s="44"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="33"/>
     </row>
     <row r="35" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I35" s="42"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="43"/>
-      <c r="R35" s="44"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="32"/>
+      <c r="R35" s="33"/>
     </row>
     <row r="36" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I36" s="42"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="44"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="33"/>
     </row>
     <row r="37" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I37" s="42"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
-      <c r="P37" s="43"/>
-      <c r="Q37" s="43"/>
-      <c r="R37" s="44"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="33"/>
     </row>
     <row r="38" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I38" s="42"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="43"/>
-      <c r="R38" s="44"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="33"/>
     </row>
     <row r="39" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I39" s="42"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="43"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="43"/>
-      <c r="R39" s="44"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="32"/>
+      <c r="R39" s="33"/>
     </row>
     <row r="40" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I40" s="42"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="43"/>
-      <c r="N40" s="43"/>
-      <c r="O40" s="43"/>
-      <c r="P40" s="43"/>
-      <c r="Q40" s="43"/>
-      <c r="R40" s="44"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="32"/>
+      <c r="R40" s="33"/>
     </row>
     <row r="41" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I41" s="42"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="43"/>
-      <c r="M41" s="43"/>
-      <c r="N41" s="43"/>
-      <c r="O41" s="43"/>
-      <c r="P41" s="43"/>
-      <c r="Q41" s="43"/>
-      <c r="R41" s="44"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="32"/>
+      <c r="R41" s="33"/>
     </row>
     <row r="42" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I42" s="42"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="43"/>
-      <c r="M42" s="43"/>
-      <c r="N42" s="43"/>
-      <c r="O42" s="43"/>
-      <c r="P42" s="43"/>
-      <c r="Q42" s="43"/>
-      <c r="R42" s="44"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="32"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="33"/>
     </row>
     <row r="43" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I43" s="42"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="43"/>
-      <c r="L43" s="43"/>
-      <c r="M43" s="43"/>
-      <c r="N43" s="43"/>
-      <c r="O43" s="43"/>
-      <c r="P43" s="43"/>
-      <c r="Q43" s="43"/>
-      <c r="R43" s="44"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="32"/>
+      <c r="P43" s="32"/>
+      <c r="Q43" s="32"/>
+      <c r="R43" s="33"/>
     </row>
     <row r="44" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I44" s="42"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="43"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="43"/>
-      <c r="O44" s="43"/>
-      <c r="P44" s="43"/>
-      <c r="Q44" s="43"/>
-      <c r="R44" s="44"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="32"/>
+      <c r="P44" s="32"/>
+      <c r="Q44" s="32"/>
+      <c r="R44" s="33"/>
     </row>
     <row r="45" spans="9:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I45" s="45"/>
-      <c r="J45" s="46"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="46"/>
-      <c r="N45" s="46"/>
-      <c r="O45" s="46"/>
-      <c r="P45" s="46"/>
-      <c r="Q45" s="46"/>
-      <c r="R45" s="47"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="35"/>
+      <c r="N45" s="35"/>
+      <c r="O45" s="35"/>
+      <c r="P45" s="35"/>
+      <c r="Q45" s="35"/>
+      <c r="R45" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -27420,8 +27473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26DE797-EEB2-4B58-B867-67BE01D99B3E}">
   <dimension ref="B1:R45"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -27438,51 +27491,51 @@
       </c>
       <c r="C2" s="10">
         <f>AVERAGE(uo288066_db_usuarios!C4:C6)</f>
-        <v>46</v>
-      </c>
-      <c r="I2" s="48" t="s">
+        <v>51.333333333333336</v>
+      </c>
+      <c r="I2" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="41"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="30"/>
     </row>
     <row r="3" spans="2:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I3" s="42"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="44"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="33"/>
     </row>
     <row r="4" spans="2:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="44"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="72"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="33"/>
     </row>
     <row r="5" spans="2:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
@@ -27503,19 +27556,19 @@
       <c r="G5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="42"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="44"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="33"/>
     </row>
     <row r="6" spans="2:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="17">
@@ -27526,111 +27579,111 @@
         <f>COUNTIFS(uo288066_db_usuarios!C4:C6,"&gt;20", uo288066_db_usuarios!C4:C6,"&lt;=30")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6">
         <f>COUNTIFS(uo288066_db_usuarios!C4:C6,"&gt;30", uo288066_db_usuarios!C4:C6,"&lt;=40")</f>
         <v>1</v>
       </c>
       <c r="F6" s="18">
         <f>COUNTIFS(uo288066_db_usuarios!C4:C6,"&gt;40", uo288066_db_usuarios!C4:C6,"&lt;=65")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="19">
         <f>COUNTIF(uo288066_db_usuarios!C4:C6,"&gt;65")</f>
         <v>0</v>
       </c>
-      <c r="I6" s="42"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="44"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="33"/>
     </row>
     <row r="7" spans="2:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="26">
         <f t="shared" ref="C7:F7" si="0" xml:space="preserve"> C6/($C$6+$D$6+$E$6+$F$6+$G$6)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="58">
+      <c r="D7" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="58">
+      <c r="E7" s="44">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="58">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F7" s="44">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="G7" s="58">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G7" s="44">
         <f xml:space="preserve"> G6/($C$6+$D$6+$E$6+$F$6+$G$6)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="44"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="33"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I8" s="42"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="44"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="33"/>
     </row>
     <row r="9" spans="2:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I9" s="42"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="44"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="33"/>
     </row>
     <row r="10" spans="2:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="44"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="75"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="33"/>
     </row>
     <row r="11" spans="2:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="40" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -27642,24 +27695,24 @@
       <c r="F11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="42"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="44"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="33"/>
     </row>
     <row r="12" spans="2:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="55">
+      <c r="C12" s="41">
         <f>COUNTIF(uo288066_db_usuarios!E4:E6,"&lt;=3")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="15">
         <f>COUNTIFS(uo288066_db_usuarios!E4:E6,"&gt;3", uo288066_db_usuarios!E4:E6,"&lt;=5")</f>
@@ -27673,476 +27726,476 @@
         <f>COUNTIFS(uo288066_db_usuarios!E4:E6,"&gt;7", uo288066_db_usuarios!E4:E6,"&lt;=10")</f>
         <v>1</v>
       </c>
-      <c r="I12" s="42"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="44"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="33"/>
     </row>
     <row r="13" spans="2:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="51">
+      <c r="C13" s="37">
         <f t="shared" ref="C13:E13" si="1" xml:space="preserve"> C12/($C$12+$D$12+$E$12+$F$12)</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="52">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D13" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E13" s="52">
+      <c r="E13" s="38">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="F13" s="53">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F13" s="39">
         <f xml:space="preserve"> F12/($C$12+$D$12+$E$12+$F$12)</f>
-        <v>0.5</v>
-      </c>
-      <c r="I13" s="42"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="44"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I13" s="31"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="33"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C14" s="20"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="44"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="33"/>
     </row>
     <row r="15" spans="2:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I15" s="42"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="44"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="33"/>
     </row>
     <row r="16" spans="2:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="28"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="44"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="78"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="33"/>
     </row>
     <row r="17" spans="2:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="22" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="42"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="44"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="33"/>
     </row>
     <row r="18" spans="2:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="38">
+      <c r="C18" s="27">
         <f>COUNTIF(uo288066_db_usuarios!D4:D6, "Femenino")</f>
         <v>1</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D18" s="23">
         <f>COUNTIF(uo288066_db_usuarios!D4:D6, "Masculino")</f>
-        <v>1</v>
-      </c>
-      <c r="E18" s="31" cm="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="21" cm="1">
         <f t="array" ref="E18">COUNTIF(uo288066_db_usuarios!D4:D6, Otro)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="42"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="44"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="33"/>
     </row>
     <row r="19" spans="2:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C19" s="24">
         <f t="shared" ref="C19:D19" si="2" xml:space="preserve"> C18/($C$18+$D$18+$E$18)</f>
-        <v>0.5</v>
-      </c>
-      <c r="D19" s="59">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D19" s="45">
         <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="E19" s="35">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E19" s="25">
         <f xml:space="preserve"> E18/($C$18+$D$18+$E$18)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="42"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="44"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="33"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I20" s="42"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="44"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="33"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I21" s="42"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="44"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="33"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I22" s="42"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="44"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="33"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I23" s="42"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="44"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="33"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I24" s="42"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="44"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="33"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I25" s="42"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="44"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="33"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I26" s="42"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="44"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="33"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I27" s="42"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="44"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="33"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I28" s="42"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43"/>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="44"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="33"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I29" s="42"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="44"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="33"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I30" s="42"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="44"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="33"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I31" s="42"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="44"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="33"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I32" s="42"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="44"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="33"/>
     </row>
     <row r="33" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I33" s="42"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="43"/>
-      <c r="Q33" s="43"/>
-      <c r="R33" s="44"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="33"/>
     </row>
     <row r="34" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I34" s="42"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="43"/>
-      <c r="Q34" s="43"/>
-      <c r="R34" s="44"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="33"/>
     </row>
     <row r="35" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I35" s="42"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="43"/>
-      <c r="R35" s="44"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="32"/>
+      <c r="R35" s="33"/>
     </row>
     <row r="36" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I36" s="42"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="44"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="33"/>
     </row>
     <row r="37" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I37" s="42"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
-      <c r="P37" s="43"/>
-      <c r="Q37" s="43"/>
-      <c r="R37" s="44"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="33"/>
     </row>
     <row r="38" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I38" s="42"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="43"/>
-      <c r="R38" s="44"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="33"/>
     </row>
     <row r="39" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I39" s="42"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="43"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="43"/>
-      <c r="R39" s="44"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="32"/>
+      <c r="R39" s="33"/>
     </row>
     <row r="40" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I40" s="42"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="43"/>
-      <c r="N40" s="43"/>
-      <c r="O40" s="43"/>
-      <c r="P40" s="43"/>
-      <c r="Q40" s="43"/>
-      <c r="R40" s="44"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="32"/>
+      <c r="R40" s="33"/>
     </row>
     <row r="41" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I41" s="42"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="43"/>
-      <c r="M41" s="43"/>
-      <c r="N41" s="43"/>
-      <c r="O41" s="43"/>
-      <c r="P41" s="43"/>
-      <c r="Q41" s="43"/>
-      <c r="R41" s="44"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="32"/>
+      <c r="R41" s="33"/>
     </row>
     <row r="42" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I42" s="42"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="43"/>
-      <c r="M42" s="43"/>
-      <c r="N42" s="43"/>
-      <c r="O42" s="43"/>
-      <c r="P42" s="43"/>
-      <c r="Q42" s="43"/>
-      <c r="R42" s="44"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="32"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="33"/>
     </row>
     <row r="43" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I43" s="42"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="43"/>
-      <c r="L43" s="43"/>
-      <c r="M43" s="43"/>
-      <c r="N43" s="43"/>
-      <c r="O43" s="43"/>
-      <c r="P43" s="43"/>
-      <c r="Q43" s="43"/>
-      <c r="R43" s="44"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="32"/>
+      <c r="P43" s="32"/>
+      <c r="Q43" s="32"/>
+      <c r="R43" s="33"/>
     </row>
     <row r="44" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I44" s="42"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="43"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="43"/>
-      <c r="O44" s="43"/>
-      <c r="P44" s="43"/>
-      <c r="Q44" s="43"/>
-      <c r="R44" s="44"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="32"/>
+      <c r="P44" s="32"/>
+      <c r="Q44" s="32"/>
+      <c r="R44" s="33"/>
     </row>
     <row r="45" spans="9:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I45" s="45"/>
-      <c r="J45" s="46"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="46"/>
-      <c r="N45" s="46"/>
-      <c r="O45" s="46"/>
-      <c r="P45" s="46"/>
-      <c r="Q45" s="46"/>
-      <c r="R45" s="47"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="35"/>
+      <c r="N45" s="35"/>
+      <c r="O45" s="35"/>
+      <c r="P45" s="35"/>
+      <c r="Q45" s="35"/>
+      <c r="R45" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -28160,7 +28213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA2E7287-2BD3-4BEA-875C-548DE0F346DF}">
   <dimension ref="B1:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
@@ -28177,52 +28230,52 @@
         <v>1</v>
       </c>
       <c r="C2" s="10" t="e">
-        <f>AVERAGE(uo288066_db_usuarios!C7:C9)</f>
+        <f>AVERAGE(uo288066_db_usuarios!C8:C10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="41"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="30"/>
     </row>
     <row r="3" spans="2:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I3" s="42"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="44"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="33"/>
     </row>
     <row r="4" spans="2:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="44"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="72"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="33"/>
     </row>
     <row r="5" spans="2:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
@@ -28243,134 +28296,134 @@
       <c r="G5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="42"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="44"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="33"/>
     </row>
     <row r="6" spans="2:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="17">
-        <f>COUNTIF(uo288066_db_usuarios!C7:C9,"&lt;=20")</f>
+        <f>COUNTIF(uo288066_db_usuarios!C8:C10,"&lt;=20")</f>
         <v>0</v>
       </c>
       <c r="D6" s="18">
-        <f>COUNTIFS(uo288066_db_usuarios!C7:C9,"&gt;20", uo288066_db_usuarios!C7:C9,"&lt;=30")</f>
+        <f>COUNTIFS(uo288066_db_usuarios!C8:C10,"&gt;20", uo288066_db_usuarios!C8:C10,"&lt;=30")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="37">
-        <f>COUNTIFS(uo288066_db_usuarios!C7:C9,"&gt;30", uo288066_db_usuarios!C7:C9,"&lt;=40")</f>
+      <c r="E6">
+        <f>COUNTIFS(uo288066_db_usuarios!C8:C10,"&gt;30", uo288066_db_usuarios!C8:C10,"&lt;=40")</f>
         <v>0</v>
       </c>
       <c r="F6" s="18">
-        <f>COUNTIFS(uo288066_db_usuarios!C7:C9,"&gt;40", uo288066_db_usuarios!C7:C9,"&lt;=65")</f>
+        <f>COUNTIFS(uo288066_db_usuarios!C8:C10,"&gt;40", uo288066_db_usuarios!C8:C10,"&lt;=65")</f>
         <v>0</v>
       </c>
       <c r="G6" s="19">
-        <f>COUNTIF(uo288066_db_usuarios!C7:C9,"&gt;65")</f>
+        <f>COUNTIF(uo288066_db_usuarios!C8:C10,"&gt;65")</f>
         <v>0</v>
       </c>
-      <c r="I6" s="42"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="44"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="33"/>
     </row>
     <row r="7" spans="2:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="36" t="e">
+      <c r="C7" s="26" t="e">
         <f t="shared" ref="C7:F7" si="0" xml:space="preserve"> C6/($C$6+$D$6+$E$6+$F$6+$G$6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D7" s="58" t="e">
+      <c r="D7" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E7" s="58" t="e">
+      <c r="E7" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F7" s="58" t="e">
+      <c r="F7" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G7" s="58" t="e">
+      <c r="G7" s="44" t="e">
         <f xml:space="preserve"> G6/($C$6+$D$6+$E$6+$F$6+$G$6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="44"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="33"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I8" s="42"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="44"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="33"/>
     </row>
     <row r="9" spans="2:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I9" s="42"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="44"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="33"/>
     </row>
     <row r="10" spans="2:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="44"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="75"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="33"/>
     </row>
     <row r="11" spans="2:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="40" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -28382,507 +28435,507 @@
       <c r="F11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="42"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="44"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="33"/>
     </row>
     <row r="12" spans="2:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="55">
-        <f>COUNTIF(uo288066_db_usuarios!E7:E9,"&lt;=3")</f>
+      <c r="C12" s="41">
+        <f>COUNTIF(uo288066_db_usuarios!E8:E10,"&lt;=3")</f>
         <v>0</v>
       </c>
       <c r="D12" s="15">
-        <f>COUNTIFS(uo288066_db_usuarios!E7:E9,"&gt;3", uo288066_db_usuarios!E7:E9,"&lt;=5")</f>
+        <f>COUNTIFS(uo288066_db_usuarios!E8:E10,"&gt;3", uo288066_db_usuarios!E8:E10,"&lt;=5")</f>
         <v>0</v>
       </c>
       <c r="E12" s="15">
-        <f>COUNTIFS(uo288066_db_usuarios!E7:E9,"&gt;5", uo288066_db_usuarios!E7:E9,"&lt;=7")</f>
+        <f>COUNTIFS(uo288066_db_usuarios!E8:E10,"&gt;5", uo288066_db_usuarios!E8:E10,"&lt;=7")</f>
         <v>0</v>
       </c>
       <c r="F12" s="16">
-        <f>COUNTIFS(uo288066_db_usuarios!E7:E9,"&gt;7", uo288066_db_usuarios!E7:E9,"&lt;=10")</f>
+        <f>COUNTIFS(uo288066_db_usuarios!E8:E10,"&gt;7", uo288066_db_usuarios!E8:E10,"&lt;=10")</f>
         <v>0</v>
       </c>
-      <c r="I12" s="42"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="44"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="33"/>
     </row>
     <row r="13" spans="2:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="51" t="e">
+      <c r="C13" s="37" t="e">
         <f t="shared" ref="C13:E13" si="1" xml:space="preserve"> C12/($C$12+$D$12+$E$12+$F$12)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D13" s="52" t="e">
+      <c r="D13" s="38" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E13" s="52" t="e">
+      <c r="E13" s="38" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F13" s="53" t="e">
+      <c r="F13" s="39" t="e">
         <f xml:space="preserve"> F12/($C$12+$D$12+$E$12+$F$12)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="42"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="44"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="33"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C14" s="20"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="44"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="33"/>
     </row>
     <row r="15" spans="2:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I15" s="42"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="44"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="33"/>
     </row>
     <row r="16" spans="2:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="28"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="44"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="78"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="33"/>
     </row>
     <row r="17" spans="2:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="22" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="42"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="44"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="33"/>
     </row>
     <row r="18" spans="2:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="38">
-        <f>COUNTIF(uo288066_db_usuarios!D7:D9, "Femenino")</f>
+      <c r="C18" s="27">
+        <f>COUNTIF(uo288066_db_usuarios!D8:D10, "Femenino")</f>
         <v>0</v>
       </c>
-      <c r="D18" s="33">
-        <f>COUNTIF(uo288066_db_usuarios!D7:D9, "Masculino")</f>
+      <c r="D18" s="23">
+        <f>COUNTIF(uo288066_db_usuarios!D8:D10, "Masculino")</f>
         <v>0</v>
       </c>
-      <c r="E18" s="31">
-        <f>COUNTIF(uo288066_db_usuarios!D7:D9, "Otro")</f>
+      <c r="E18" s="21">
+        <f>COUNTIF(uo288066_db_usuarios!D8:D10, "Otro")</f>
         <v>0</v>
       </c>
-      <c r="I18" s="42"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="44"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="33"/>
     </row>
     <row r="19" spans="2:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="34" t="e">
+      <c r="C19" s="24" t="e">
         <f t="shared" ref="C19:D19" si="2" xml:space="preserve"> C18/($C$18+$D$18+$E$18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D19" s="59" t="e">
+      <c r="D19" s="45" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E19" s="35" t="e">
+      <c r="E19" s="25" t="e">
         <f xml:space="preserve"> E18/($C$18+$D$18+$E$18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="42"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="44"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="33"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I20" s="42"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="44"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="33"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I21" s="42"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="44"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="33"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I22" s="42"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="44"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="33"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I23" s="42"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="44"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="33"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I24" s="42"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="44"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="33"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I25" s="42"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="44"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="33"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I26" s="42"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="44"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="33"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I27" s="42"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="44"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="33"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I28" s="42"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43"/>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="44"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="33"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I29" s="42"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="44"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="33"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I30" s="42"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="44"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="33"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I31" s="42"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="44"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="33"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I32" s="42"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="44"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="33"/>
     </row>
     <row r="33" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I33" s="42"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="43"/>
-      <c r="Q33" s="43"/>
-      <c r="R33" s="44"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="33"/>
     </row>
     <row r="34" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I34" s="42"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="43"/>
-      <c r="Q34" s="43"/>
-      <c r="R34" s="44"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="33"/>
     </row>
     <row r="35" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I35" s="42"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="43"/>
-      <c r="R35" s="44"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="32"/>
+      <c r="R35" s="33"/>
     </row>
     <row r="36" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I36" s="42"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="44"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="33"/>
     </row>
     <row r="37" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I37" s="42"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
-      <c r="P37" s="43"/>
-      <c r="Q37" s="43"/>
-      <c r="R37" s="44"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="33"/>
     </row>
     <row r="38" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I38" s="42"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="43"/>
-      <c r="R38" s="44"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="33"/>
     </row>
     <row r="39" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I39" s="42"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="43"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="43"/>
-      <c r="R39" s="44"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="32"/>
+      <c r="R39" s="33"/>
     </row>
     <row r="40" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I40" s="42"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="43"/>
-      <c r="N40" s="43"/>
-      <c r="O40" s="43"/>
-      <c r="P40" s="43"/>
-      <c r="Q40" s="43"/>
-      <c r="R40" s="44"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="32"/>
+      <c r="R40" s="33"/>
     </row>
     <row r="41" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I41" s="42"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="43"/>
-      <c r="M41" s="43"/>
-      <c r="N41" s="43"/>
-      <c r="O41" s="43"/>
-      <c r="P41" s="43"/>
-      <c r="Q41" s="43"/>
-      <c r="R41" s="44"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="32"/>
+      <c r="R41" s="33"/>
     </row>
     <row r="42" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I42" s="42"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="43"/>
-      <c r="M42" s="43"/>
-      <c r="N42" s="43"/>
-      <c r="O42" s="43"/>
-      <c r="P42" s="43"/>
-      <c r="Q42" s="43"/>
-      <c r="R42" s="44"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="32"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="33"/>
     </row>
     <row r="43" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I43" s="42"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="43"/>
-      <c r="L43" s="43"/>
-      <c r="M43" s="43"/>
-      <c r="N43" s="43"/>
-      <c r="O43" s="43"/>
-      <c r="P43" s="43"/>
-      <c r="Q43" s="43"/>
-      <c r="R43" s="44"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="32"/>
+      <c r="P43" s="32"/>
+      <c r="Q43" s="32"/>
+      <c r="R43" s="33"/>
     </row>
     <row r="44" spans="9:18" x14ac:dyDescent="0.3">
-      <c r="I44" s="42"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="43"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="43"/>
-      <c r="O44" s="43"/>
-      <c r="P44" s="43"/>
-      <c r="Q44" s="43"/>
-      <c r="R44" s="44"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="32"/>
+      <c r="P44" s="32"/>
+      <c r="Q44" s="32"/>
+      <c r="R44" s="33"/>
     </row>
     <row r="45" spans="9:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I45" s="45"/>
-      <c r="J45" s="46"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="46"/>
-      <c r="N45" s="46"/>
-      <c r="O45" s="46"/>
-      <c r="P45" s="46"/>
-      <c r="Q45" s="46"/>
-      <c r="R45" s="47"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="35"/>
+      <c r="N45" s="35"/>
+      <c r="O45" s="35"/>
+      <c r="P45" s="35"/>
+      <c r="Q45" s="35"/>
+      <c r="R45" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -28900,7 +28953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758C81DB-CDD8-4CF0-B995-68970B44831E}">
   <dimension ref="B1:AH35"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AA38" sqref="AA38"/>
     </sheetView>
   </sheetViews>
@@ -28923,45 +28976,45 @@
       </c>
       <c r="C2" s="10">
         <f>AVERAGE(uo288066_db_usuarios!C:C)</f>
-        <v>34</v>
+        <v>39.6</v>
       </c>
     </row>
     <row r="3" spans="2:34" ht="15.65" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:34" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
-      <c r="K4" s="71" t="s">
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="72"/>
+      <c r="K4" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="73"/>
-      <c r="P4" s="48" t="s">
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="96"/>
+      <c r="P4" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="40"/>
-      <c r="AG4" s="40"/>
-      <c r="AH4" s="41"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="30"/>
     </row>
     <row r="5" spans="2:34" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
@@ -28985,7 +29038,7 @@
       <c r="J5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="54" t="s">
+      <c r="K5" s="40" t="s">
         <v>15</v>
       </c>
       <c r="L5" s="6" t="s">
@@ -28997,28 +29050,28 @@
       <c r="N5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="43"/>
-      <c r="X5" s="43"/>
-      <c r="Y5" s="43"/>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="43"/>
-      <c r="AC5" s="43"/>
-      <c r="AD5" s="43"/>
-      <c r="AE5" s="43"/>
-      <c r="AF5" s="43"/>
-      <c r="AG5" s="43"/>
-      <c r="AH5" s="44"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="32"/>
+      <c r="AA5" s="32"/>
+      <c r="AB5" s="32"/>
+      <c r="AC5" s="32"/>
+      <c r="AD5" s="32"/>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="32"/>
+      <c r="AG5" s="32"/>
+      <c r="AH5" s="33"/>
     </row>
     <row r="6" spans="2:34" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="17">
@@ -29029,13 +29082,13 @@
         <f>COUNTIFS(uo288066_db_usuarios!C:C,"&gt;20", uo288066_db_usuarios!C:C,"&lt;=30")</f>
         <v>2</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6">
         <f>COUNTIFS(uo288066_db_usuarios!C:C,"&gt;30", uo288066_db_usuarios!C:C,"&lt;=40")</f>
         <v>1</v>
       </c>
       <c r="F6" s="18">
         <f>COUNTIFS(uo288066_db_usuarios!C:C,"&gt;40", uo288066_db_usuarios!C:C,"&lt;=65")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="19">
         <f>COUNTIF(uo288066_db_usuarios!C:C,"&gt;65")</f>
@@ -29044,9 +29097,9 @@
       <c r="J6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="55">
+      <c r="K6" s="41">
         <f>COUNTIF(uo288066_db_usuarios!E:E,"&lt;=3")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="15">
         <f>COUNTIFS(uo288066_db_usuarios!E:E,"&gt;3", uo288066_db_usuarios!E:E,"&lt;=5")</f>
@@ -29060,1007 +29113,1012 @@
         <f>COUNTIFS(uo288066_db_usuarios!E:E,"&gt;7", uo288066_db_usuarios!E:E,"&lt;=10")</f>
         <v>3</v>
       </c>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="43"/>
-      <c r="Y6" s="43"/>
-      <c r="Z6" s="43"/>
-      <c r="AA6" s="43"/>
-      <c r="AB6" s="43"/>
-      <c r="AC6" s="43"/>
-      <c r="AD6" s="43"/>
-      <c r="AE6" s="43"/>
-      <c r="AF6" s="43"/>
-      <c r="AG6" s="43"/>
-      <c r="AH6" s="44"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="32"/>
+      <c r="AA6" s="32"/>
+      <c r="AB6" s="32"/>
+      <c r="AC6" s="32"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="32"/>
+      <c r="AF6" s="32"/>
+      <c r="AG6" s="32"/>
+      <c r="AH6" s="33"/>
     </row>
     <row r="7" spans="2:34" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="26">
         <f t="shared" ref="C7:F7" si="0" xml:space="preserve"> C6/($C$6+$D$6+$E$6+$F$6+$G$6)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="58">
+      <c r="D7" s="44">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="58">
+        <v>0.4</v>
+      </c>
+      <c r="E7" s="44">
         <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="F7" s="58">
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="44">
         <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="G7" s="58">
+        <v>0.4</v>
+      </c>
+      <c r="G7" s="44">
         <f xml:space="preserve"> G6/($C$6+$D$6+$E$6+$F$6+$G$6)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="56" t="s">
+      <c r="J7" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="51">
+      <c r="K7" s="37">
         <f xml:space="preserve"> K6/($K$6+$L$6+$M$6+$N$6)</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="L7" s="38">
         <f xml:space="preserve"> L6/($K$6+$L$6+$M$6+$N$6)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="52">
+      <c r="M7" s="38">
         <f xml:space="preserve"> M6/($K$6+$L$6+$M$6+$N$6)</f>
-        <v>0.25</v>
-      </c>
-      <c r="N7" s="53">
+        <v>0.2</v>
+      </c>
+      <c r="N7" s="39">
         <f xml:space="preserve"> N6/($K$6+$L$6+$M$6+$N$6)</f>
-        <v>0.75</v>
-      </c>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="43"/>
-      <c r="W7" s="43"/>
-      <c r="X7" s="43"/>
-      <c r="Y7" s="43"/>
-      <c r="Z7" s="43"/>
-      <c r="AA7" s="43"/>
-      <c r="AB7" s="43"/>
-      <c r="AC7" s="43"/>
-      <c r="AD7" s="43"/>
-      <c r="AE7" s="43"/>
-      <c r="AF7" s="43"/>
-      <c r="AG7" s="43"/>
-      <c r="AH7" s="44"/>
+        <v>0.6</v>
+      </c>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="32"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="32"/>
+      <c r="AD7" s="32"/>
+      <c r="AE7" s="32"/>
+      <c r="AF7" s="32"/>
+      <c r="AG7" s="32"/>
+      <c r="AH7" s="33"/>
     </row>
     <row r="8" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="P8" s="42"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="43"/>
-      <c r="AA8" s="43"/>
-      <c r="AB8" s="43"/>
-      <c r="AC8" s="43"/>
-      <c r="AD8" s="43"/>
-      <c r="AE8" s="43"/>
-      <c r="AF8" s="43"/>
-      <c r="AG8" s="43"/>
-      <c r="AH8" s="44"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="32"/>
+      <c r="AB8" s="32"/>
+      <c r="AC8" s="32"/>
+      <c r="AD8" s="32"/>
+      <c r="AE8" s="32"/>
+      <c r="AF8" s="32"/>
+      <c r="AG8" s="32"/>
+      <c r="AH8" s="33"/>
     </row>
     <row r="9" spans="2:34" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="P9" s="42"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="43"/>
-      <c r="AA9" s="43"/>
-      <c r="AB9" s="43"/>
-      <c r="AC9" s="43"/>
-      <c r="AD9" s="43"/>
-      <c r="AE9" s="43"/>
-      <c r="AF9" s="43"/>
-      <c r="AG9" s="43"/>
-      <c r="AH9" s="44"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="32"/>
+      <c r="AA9" s="32"/>
+      <c r="AB9" s="32"/>
+      <c r="AC9" s="32"/>
+      <c r="AD9" s="32"/>
+      <c r="AE9" s="32"/>
+      <c r="AF9" s="32"/>
+      <c r="AG9" s="32"/>
+      <c r="AH9" s="33"/>
     </row>
     <row r="10" spans="2:34" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="75"/>
-      <c r="E10" s="76"/>
-      <c r="K10" s="62" t="s">
+      <c r="D10" s="98"/>
+      <c r="E10" s="99"/>
+      <c r="K10" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="63"/>
-      <c r="M10" s="64"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="43"/>
-      <c r="W10" s="43"/>
-      <c r="X10" s="43"/>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="43"/>
-      <c r="AA10" s="43"/>
-      <c r="AB10" s="43"/>
-      <c r="AC10" s="43"/>
-      <c r="AD10" s="43"/>
-      <c r="AE10" s="43"/>
-      <c r="AF10" s="43"/>
-      <c r="AG10" s="43"/>
-      <c r="AH10" s="44"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="102"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="32"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="32"/>
+      <c r="AD10" s="32"/>
+      <c r="AE10" s="32"/>
+      <c r="AF10" s="32"/>
+      <c r="AG10" s="32"/>
+      <c r="AH10" s="33"/>
     </row>
     <row r="11" spans="2:34" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="22" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="65" t="s">
+      <c r="J11" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="K11" s="67" t="s">
+      <c r="K11" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="L11" s="68" t="s">
+      <c r="L11" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="M11" s="69" t="s">
+      <c r="M11" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="43"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="43"/>
-      <c r="AA11" s="43"/>
-      <c r="AB11" s="43"/>
-      <c r="AC11" s="43"/>
-      <c r="AD11" s="43"/>
-      <c r="AE11" s="43"/>
-      <c r="AF11" s="43"/>
-      <c r="AG11" s="43"/>
-      <c r="AH11" s="44"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="32"/>
+      <c r="AB11" s="32"/>
+      <c r="AC11" s="32"/>
+      <c r="AD11" s="32"/>
+      <c r="AE11" s="32"/>
+      <c r="AF11" s="32"/>
+      <c r="AG11" s="32"/>
+      <c r="AH11" s="33"/>
     </row>
     <row r="12" spans="2:34" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="27">
         <f>COUNTIF(uo288066_db_usuarios!D:D, "Femenino")</f>
         <v>1</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="23">
         <f>COUNTIF(uo288066_db_usuarios!D:D, "Masculino")</f>
-        <v>3</v>
-      </c>
-      <c r="E12" s="31" cm="1">
+        <v>4</v>
+      </c>
+      <c r="E12" s="21" cm="1">
         <f t="array" ref="E12">COUNTIF(uo288066_db_usuarios!D:D, Otro)</f>
         <v>0</v>
       </c>
-      <c r="J12" s="66" t="s">
+      <c r="J12" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="60">
+      <c r="K12" s="46">
         <f>AVERAGE(uo288066_db_resultados!D2:D3)</f>
         <v>39.5</v>
       </c>
-      <c r="L12" s="61">
+      <c r="L12" s="47">
         <f>AVERAGE(uo288066_db_resultados!D4:D6)</f>
-        <v>170</v>
-      </c>
-      <c r="M12" s="39" t="e">
+        <v>223.66666666666666</v>
+      </c>
+      <c r="M12" s="28" t="e">
         <f>AVERAGE(uo288066_db_resultados!D7:D9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="43"/>
-      <c r="W12" s="43"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="43"/>
-      <c r="Z12" s="43"/>
-      <c r="AA12" s="43"/>
-      <c r="AB12" s="43"/>
-      <c r="AC12" s="43"/>
-      <c r="AD12" s="43"/>
-      <c r="AE12" s="43"/>
-      <c r="AF12" s="43"/>
-      <c r="AG12" s="43"/>
-      <c r="AH12" s="44"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="32"/>
+      <c r="AB12" s="32"/>
+      <c r="AC12" s="32"/>
+      <c r="AD12" s="32"/>
+      <c r="AE12" s="32"/>
+      <c r="AF12" s="32"/>
+      <c r="AG12" s="32"/>
+      <c r="AH12" s="33"/>
     </row>
     <row r="13" spans="2:34" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="24">
         <f xml:space="preserve"> C12/($C$12+$D$12+$E$12)</f>
-        <v>0.25</v>
-      </c>
-      <c r="D13" s="59">
+        <v>0.2</v>
+      </c>
+      <c r="D13" s="45">
         <f xml:space="preserve"> D12/($C$12+$D$12+$E$12)</f>
-        <v>0.75</v>
-      </c>
-      <c r="E13" s="35">
+        <v>0.8</v>
+      </c>
+      <c r="E13" s="25">
         <f xml:space="preserve"> E12/($C$12+$D$12+$E$12)</f>
         <v>0</v>
       </c>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="43"/>
-      <c r="W13" s="43"/>
-      <c r="X13" s="43"/>
-      <c r="Y13" s="43"/>
-      <c r="Z13" s="43"/>
-      <c r="AA13" s="43"/>
-      <c r="AB13" s="43"/>
-      <c r="AC13" s="43"/>
-      <c r="AD13" s="43"/>
-      <c r="AE13" s="43"/>
-      <c r="AF13" s="43"/>
-      <c r="AG13" s="43"/>
-      <c r="AH13" s="44"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="32"/>
+      <c r="AA13" s="32"/>
+      <c r="AB13" s="32"/>
+      <c r="AC13" s="32"/>
+      <c r="AD13" s="32"/>
+      <c r="AE13" s="32"/>
+      <c r="AF13" s="32"/>
+      <c r="AG13" s="32"/>
+      <c r="AH13" s="33"/>
     </row>
     <row r="14" spans="2:34" x14ac:dyDescent="0.3">
       <c r="C14" s="20"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="43"/>
-      <c r="W14" s="43"/>
-      <c r="X14" s="43"/>
-      <c r="Y14" s="43"/>
-      <c r="Z14" s="43"/>
-      <c r="AA14" s="43"/>
-      <c r="AB14" s="43"/>
-      <c r="AC14" s="43"/>
-      <c r="AD14" s="43"/>
-      <c r="AE14" s="43"/>
-      <c r="AF14" s="43"/>
-      <c r="AG14" s="43"/>
-      <c r="AH14" s="44"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="32"/>
+      <c r="AA14" s="32"/>
+      <c r="AB14" s="32"/>
+      <c r="AC14" s="32"/>
+      <c r="AD14" s="32"/>
+      <c r="AE14" s="32"/>
+      <c r="AF14" s="32"/>
+      <c r="AG14" s="32"/>
+      <c r="AH14" s="33"/>
     </row>
     <row r="15" spans="2:34" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="P15" s="42"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="43"/>
-      <c r="U15" s="43"/>
-      <c r="V15" s="43"/>
-      <c r="W15" s="43"/>
-      <c r="X15" s="43"/>
-      <c r="Y15" s="43"/>
-      <c r="Z15" s="43"/>
-      <c r="AA15" s="43"/>
-      <c r="AB15" s="43"/>
-      <c r="AC15" s="43"/>
-      <c r="AD15" s="43"/>
-      <c r="AE15" s="43"/>
-      <c r="AF15" s="43"/>
-      <c r="AG15" s="43"/>
-      <c r="AH15" s="44"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="32"/>
+      <c r="AB15" s="32"/>
+      <c r="AC15" s="32"/>
+      <c r="AD15" s="32"/>
+      <c r="AE15" s="32"/>
+      <c r="AF15" s="32"/>
+      <c r="AG15" s="32"/>
+      <c r="AH15" s="33"/>
     </row>
     <row r="16" spans="2:34" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="78" t="s">
+      <c r="C16" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="80"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="43"/>
-      <c r="V16" s="43"/>
-      <c r="W16" s="43"/>
-      <c r="X16" s="43"/>
-      <c r="Y16" s="43"/>
-      <c r="Z16" s="43"/>
-      <c r="AA16" s="43"/>
-      <c r="AB16" s="43"/>
-      <c r="AC16" s="43"/>
-      <c r="AD16" s="43"/>
-      <c r="AE16" s="43"/>
-      <c r="AF16" s="43"/>
-      <c r="AG16" s="43"/>
-      <c r="AH16" s="44"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="90"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="32"/>
+      <c r="AA16" s="32"/>
+      <c r="AB16" s="32"/>
+      <c r="AC16" s="32"/>
+      <c r="AD16" s="32"/>
+      <c r="AE16" s="32"/>
+      <c r="AF16" s="32"/>
+      <c r="AG16" s="32"/>
+      <c r="AH16" s="33"/>
     </row>
     <row r="17" spans="2:34" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="83" t="s">
+      <c r="C17" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="84"/>
-      <c r="E17" s="83" t="s">
+      <c r="D17" s="86"/>
+      <c r="E17" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="85"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="83" t="s">
+      <c r="F17" s="87"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="85"/>
-      <c r="J17" s="84"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="43"/>
-      <c r="W17" s="43"/>
-      <c r="X17" s="43"/>
-      <c r="Y17" s="43"/>
-      <c r="Z17" s="43"/>
-      <c r="AA17" s="43"/>
-      <c r="AB17" s="43"/>
-      <c r="AC17" s="43"/>
-      <c r="AD17" s="43"/>
-      <c r="AE17" s="43"/>
-      <c r="AF17" s="43"/>
-      <c r="AG17" s="43"/>
-      <c r="AH17" s="44"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="86"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="32"/>
+      <c r="AA17" s="32"/>
+      <c r="AB17" s="32"/>
+      <c r="AC17" s="32"/>
+      <c r="AD17" s="32"/>
+      <c r="AE17" s="32"/>
+      <c r="AF17" s="32"/>
+      <c r="AG17" s="32"/>
+      <c r="AH17" s="33"/>
     </row>
     <row r="18" spans="2:34" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="81" t="s">
+      <c r="B18" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="90">
+      <c r="C18" s="60">
         <v>1</v>
       </c>
-      <c r="D18" s="91">
+      <c r="D18" s="61">
         <v>2</v>
       </c>
-      <c r="E18" s="90">
+      <c r="E18" s="60">
         <v>3</v>
       </c>
-      <c r="F18" s="92">
+      <c r="F18" s="62">
         <v>4</v>
       </c>
-      <c r="G18" s="91">
+      <c r="G18" s="61">
         <v>5</v>
       </c>
-      <c r="H18" s="90">
+      <c r="H18" s="60">
         <v>6</v>
       </c>
-      <c r="I18" s="92">
+      <c r="I18" s="62">
         <v>7</v>
       </c>
-      <c r="J18" s="91">
+      <c r="J18" s="61">
         <v>8</v>
       </c>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="43"/>
-      <c r="W18" s="43"/>
-      <c r="X18" s="43"/>
-      <c r="Y18" s="43"/>
-      <c r="Z18" s="43"/>
-      <c r="AA18" s="43"/>
-      <c r="AB18" s="43"/>
-      <c r="AC18" s="43"/>
-      <c r="AD18" s="43"/>
-      <c r="AE18" s="43"/>
-      <c r="AF18" s="43"/>
-      <c r="AG18" s="43"/>
-      <c r="AH18" s="44"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="32"/>
+      <c r="Z18" s="32"/>
+      <c r="AA18" s="32"/>
+      <c r="AB18" s="32"/>
+      <c r="AC18" s="32"/>
+      <c r="AD18" s="32"/>
+      <c r="AE18" s="32"/>
+      <c r="AF18" s="32"/>
+      <c r="AG18" s="32"/>
+      <c r="AH18" s="33"/>
     </row>
     <row r="19" spans="2:34" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="86">
+      <c r="C19" s="56">
         <f>uo288066_db_usuarios!E2</f>
         <v>10</v>
       </c>
-      <c r="D19" s="89">
+      <c r="D19" s="59">
         <f>uo288066_db_usuarios!E3</f>
         <v>10</v>
       </c>
-      <c r="E19" s="86">
+      <c r="E19" s="56">
         <f>uo288066_db_usuarios!E4</f>
         <v>8</v>
       </c>
-      <c r="F19" s="88">
+      <c r="F19" s="58">
         <f>uo288066_db_usuarios!E5</f>
         <v>6</v>
       </c>
-      <c r="G19" s="89">
+      <c r="G19" s="59">
         <f>uo288066_db_usuarios!E6</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="86">
-        <f>uo288066_db_usuarios!E7</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="88">
+        <v>3</v>
+      </c>
+      <c r="H19" s="56">
         <f>uo288066_db_usuarios!E8</f>
         <v>0</v>
       </c>
-      <c r="J19" s="87">
+      <c r="I19" s="58">
         <f>uo288066_db_usuarios!E9</f>
         <v>0</v>
       </c>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="43"/>
-      <c r="U19" s="43"/>
-      <c r="V19" s="43"/>
-      <c r="W19" s="43"/>
-      <c r="X19" s="43"/>
-      <c r="Y19" s="43"/>
-      <c r="Z19" s="43"/>
-      <c r="AA19" s="43"/>
-      <c r="AB19" s="43"/>
-      <c r="AC19" s="43"/>
-      <c r="AD19" s="43"/>
-      <c r="AE19" s="43"/>
-      <c r="AF19" s="43"/>
-      <c r="AG19" s="43"/>
-      <c r="AH19" s="44"/>
+      <c r="J19" s="57">
+        <f>uo288066_db_usuarios!E10</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="32"/>
+      <c r="AA19" s="32"/>
+      <c r="AB19" s="32"/>
+      <c r="AC19" s="32"/>
+      <c r="AD19" s="32"/>
+      <c r="AE19" s="32"/>
+      <c r="AF19" s="32"/>
+      <c r="AG19" s="32"/>
+      <c r="AH19" s="33"/>
     </row>
     <row r="20" spans="2:34" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="81" t="s">
+      <c r="B20" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="93">
+      <c r="C20" s="63">
         <f>uo288066_db_resultados!D2</f>
         <v>35</v>
       </c>
-      <c r="D20" s="70">
+      <c r="D20" s="21">
         <f>uo288066_db_resultados!D3</f>
         <v>44</v>
       </c>
-      <c r="E20" s="93">
+      <c r="E20" s="63">
         <f>uo288066_db_resultados!D4</f>
         <v>126</v>
       </c>
-      <c r="F20" s="94">
+      <c r="F20" s="53">
         <f>uo288066_db_resultados!D5</f>
         <v>214</v>
       </c>
-      <c r="G20" s="70">
+      <c r="G20" s="21">
         <f>uo288066_db_resultados!D6</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="93">
+        <v>331</v>
+      </c>
+      <c r="H20" s="63">
         <f>uo288066_db_resultados!D7</f>
         <v>0</v>
       </c>
-      <c r="I20" s="94">
+      <c r="I20" s="53">
         <f>uo288066_db_resultados!D8</f>
         <v>0</v>
       </c>
-      <c r="J20" s="70">
+      <c r="J20" s="21">
         <f>uo288066_db_resultados!D9</f>
         <v>0</v>
       </c>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="43"/>
-      <c r="V20" s="43"/>
-      <c r="W20" s="43"/>
-      <c r="X20" s="43"/>
-      <c r="Y20" s="43"/>
-      <c r="Z20" s="43"/>
-      <c r="AA20" s="43"/>
-      <c r="AB20" s="43"/>
-      <c r="AC20" s="43"/>
-      <c r="AD20" s="43"/>
-      <c r="AE20" s="43"/>
-      <c r="AF20" s="43"/>
-      <c r="AG20" s="43"/>
-      <c r="AH20" s="44"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="32"/>
+      <c r="AA20" s="32"/>
+      <c r="AB20" s="32"/>
+      <c r="AC20" s="32"/>
+      <c r="AD20" s="32"/>
+      <c r="AE20" s="32"/>
+      <c r="AF20" s="32"/>
+      <c r="AG20" s="32"/>
+      <c r="AH20" s="33"/>
     </row>
     <row r="21" spans="2:34" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="95">
+      <c r="C21" s="91">
         <f xml:space="preserve"> AVERAGE(C20:D20)</f>
         <v>39.5</v>
       </c>
-      <c r="D21" s="96"/>
-      <c r="E21" s="95">
+      <c r="D21" s="92"/>
+      <c r="E21" s="91">
         <f>AVERAGE(E20:G20)</f>
-        <v>113.33333333333333</v>
-      </c>
-      <c r="F21" s="97"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="95">
+        <v>223.66666666666666</v>
+      </c>
+      <c r="F21" s="93"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="91">
         <f>AVERAGE(H20:J20)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="97"/>
-      <c r="J21" s="96"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="43"/>
-      <c r="W21" s="43"/>
-      <c r="X21" s="43"/>
-      <c r="Y21" s="43"/>
-      <c r="Z21" s="43"/>
-      <c r="AA21" s="43"/>
-      <c r="AB21" s="43"/>
-      <c r="AC21" s="43"/>
-      <c r="AD21" s="43"/>
-      <c r="AE21" s="43"/>
-      <c r="AF21" s="43"/>
-      <c r="AG21" s="43"/>
-      <c r="AH21" s="44"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="92"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="32"/>
+      <c r="AA21" s="32"/>
+      <c r="AB21" s="32"/>
+      <c r="AC21" s="32"/>
+      <c r="AD21" s="32"/>
+      <c r="AE21" s="32"/>
+      <c r="AF21" s="32"/>
+      <c r="AG21" s="32"/>
+      <c r="AH21" s="33"/>
     </row>
     <row r="22" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="P22" s="42"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="43"/>
-      <c r="S22" s="43"/>
-      <c r="T22" s="43"/>
-      <c r="U22" s="43"/>
-      <c r="V22" s="43"/>
-      <c r="W22" s="43"/>
-      <c r="X22" s="43"/>
-      <c r="Y22" s="43"/>
-      <c r="Z22" s="43"/>
-      <c r="AA22" s="43"/>
-      <c r="AB22" s="43"/>
-      <c r="AC22" s="43"/>
-      <c r="AD22" s="43"/>
-      <c r="AE22" s="43"/>
-      <c r="AF22" s="43"/>
-      <c r="AG22" s="43"/>
-      <c r="AH22" s="44"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="32"/>
+      <c r="AA22" s="32"/>
+      <c r="AB22" s="32"/>
+      <c r="AC22" s="32"/>
+      <c r="AD22" s="32"/>
+      <c r="AE22" s="32"/>
+      <c r="AF22" s="32"/>
+      <c r="AG22" s="32"/>
+      <c r="AH22" s="33"/>
     </row>
     <row r="23" spans="2:34" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="P23" s="42"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="43"/>
-      <c r="T23" s="43"/>
-      <c r="U23" s="43"/>
-      <c r="V23" s="43"/>
-      <c r="W23" s="43"/>
-      <c r="X23" s="43"/>
-      <c r="Y23" s="43"/>
-      <c r="Z23" s="43"/>
-      <c r="AA23" s="43"/>
-      <c r="AB23" s="43"/>
-      <c r="AC23" s="43"/>
-      <c r="AD23" s="43"/>
-      <c r="AE23" s="43"/>
-      <c r="AF23" s="43"/>
-      <c r="AG23" s="43"/>
-      <c r="AH23" s="44"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="32"/>
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="32"/>
+      <c r="AA23" s="32"/>
+      <c r="AB23" s="32"/>
+      <c r="AC23" s="32"/>
+      <c r="AD23" s="32"/>
+      <c r="AE23" s="32"/>
+      <c r="AF23" s="32"/>
+      <c r="AG23" s="32"/>
+      <c r="AH23" s="33"/>
     </row>
     <row r="24" spans="2:34" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="102" t="s">
+      <c r="C24" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="104"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="43"/>
-      <c r="T24" s="43"/>
-      <c r="U24" s="43"/>
-      <c r="V24" s="43"/>
-      <c r="W24" s="43"/>
-      <c r="X24" s="43"/>
-      <c r="Y24" s="43"/>
-      <c r="Z24" s="43"/>
-      <c r="AA24" s="43"/>
-      <c r="AB24" s="43"/>
-      <c r="AC24" s="43"/>
-      <c r="AD24" s="43"/>
-      <c r="AE24" s="43"/>
-      <c r="AF24" s="43"/>
-      <c r="AG24" s="43"/>
-      <c r="AH24" s="44"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="84"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="32"/>
+      <c r="X24" s="32"/>
+      <c r="Y24" s="32"/>
+      <c r="Z24" s="32"/>
+      <c r="AA24" s="32"/>
+      <c r="AB24" s="32"/>
+      <c r="AC24" s="32"/>
+      <c r="AD24" s="32"/>
+      <c r="AE24" s="32"/>
+      <c r="AF24" s="32"/>
+      <c r="AG24" s="32"/>
+      <c r="AH24" s="33"/>
     </row>
     <row r="25" spans="2:34" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="105" t="s">
+      <c r="B25" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="99">
+      <c r="C25" s="65">
         <v>1</v>
       </c>
-      <c r="D25" s="100">
+      <c r="D25" s="66">
         <v>2</v>
       </c>
-      <c r="E25" s="100">
+      <c r="E25" s="66">
         <v>3</v>
       </c>
-      <c r="F25" s="100">
+      <c r="F25" s="66">
         <v>4</v>
       </c>
-      <c r="G25" s="100">
+      <c r="G25" s="66">
         <v>5</v>
       </c>
-      <c r="H25" s="100">
+      <c r="H25" s="66">
         <v>6</v>
       </c>
-      <c r="I25" s="100">
+      <c r="I25" s="66">
         <v>7</v>
       </c>
-      <c r="J25" s="101">
+      <c r="J25" s="67">
         <v>8</v>
       </c>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="43"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="43"/>
-      <c r="V25" s="43"/>
-      <c r="W25" s="43"/>
-      <c r="X25" s="43"/>
-      <c r="Y25" s="43"/>
-      <c r="Z25" s="43"/>
-      <c r="AA25" s="43"/>
-      <c r="AB25" s="43"/>
-      <c r="AC25" s="43"/>
-      <c r="AD25" s="43"/>
-      <c r="AE25" s="43"/>
-      <c r="AF25" s="43"/>
-      <c r="AG25" s="43"/>
-      <c r="AH25" s="44"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32"/>
+      <c r="W25" s="32"/>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="32"/>
+      <c r="AA25" s="32"/>
+      <c r="AB25" s="32"/>
+      <c r="AC25" s="32"/>
+      <c r="AD25" s="32"/>
+      <c r="AE25" s="32"/>
+      <c r="AF25" s="32"/>
+      <c r="AG25" s="32"/>
+      <c r="AH25" s="33"/>
     </row>
     <row r="26" spans="2:34" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="106" t="s">
+      <c r="B26" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="33">
+      <c r="C26" s="23">
         <f>C19/10</f>
         <v>1</v>
       </c>
-      <c r="D26" s="77">
+      <c r="D26" s="53">
         <f t="shared" ref="D26:J26" si="1">D19/10</f>
         <v>1</v>
       </c>
-      <c r="E26" s="77">
+      <c r="E26" s="53">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="F26" s="77">
+      <c r="F26" s="53">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="G26" s="77">
+      <c r="G26" s="53">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="H26" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H26" s="77">
+      <c r="I26" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I26" s="77">
+      <c r="J26" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J26" s="31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="43"/>
-      <c r="V26" s="43"/>
-      <c r="W26" s="43"/>
-      <c r="X26" s="43"/>
-      <c r="Y26" s="43"/>
-      <c r="Z26" s="43"/>
-      <c r="AA26" s="43"/>
-      <c r="AB26" s="43"/>
-      <c r="AC26" s="43"/>
-      <c r="AD26" s="43"/>
-      <c r="AE26" s="43"/>
-      <c r="AF26" s="43"/>
-      <c r="AG26" s="43"/>
-      <c r="AH26" s="44"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="32"/>
+      <c r="AA26" s="32"/>
+      <c r="AB26" s="32"/>
+      <c r="AC26" s="32"/>
+      <c r="AD26" s="32"/>
+      <c r="AE26" s="32"/>
+      <c r="AF26" s="32"/>
+      <c r="AG26" s="32"/>
+      <c r="AH26" s="33"/>
     </row>
     <row r="27" spans="2:34" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="105" t="s">
+      <c r="B27" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="98">
+      <c r="C27" s="64">
         <f>(C20) / (MAX($C$20:$J$20) - MIN($C$20:$J$20))</f>
-        <v>0.16355140186915887</v>
-      </c>
-      <c r="D27" s="61">
+        <v>0.10574018126888217</v>
+      </c>
+      <c r="D27" s="47">
         <f t="shared" ref="D27:J27" si="2">(D20) / (MAX($C$20:$J$20) - MIN($C$20:$J$20))</f>
-        <v>0.20560747663551401</v>
-      </c>
-      <c r="E27" s="61">
+        <v>0.13293051359516617</v>
+      </c>
+      <c r="E27" s="47">
         <f t="shared" si="2"/>
-        <v>0.58878504672897192</v>
-      </c>
-      <c r="F27" s="61">
+        <v>0.38066465256797583</v>
+      </c>
+      <c r="F27" s="47">
+        <f t="shared" si="2"/>
+        <v>0.6465256797583081</v>
+      </c>
+      <c r="G27" s="47">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G27" s="61">
+      <c r="H27" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H27" s="61">
+      <c r="I27" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I27" s="61">
+      <c r="J27" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J27" s="39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="43"/>
-      <c r="V27" s="43"/>
-      <c r="W27" s="43"/>
-      <c r="X27" s="43"/>
-      <c r="Y27" s="43"/>
-      <c r="Z27" s="43"/>
-      <c r="AA27" s="43"/>
-      <c r="AB27" s="43"/>
-      <c r="AC27" s="43"/>
-      <c r="AD27" s="43"/>
-      <c r="AE27" s="43"/>
-      <c r="AF27" s="43"/>
-      <c r="AG27" s="43"/>
-      <c r="AH27" s="44"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="32"/>
+      <c r="AA27" s="32"/>
+      <c r="AB27" s="32"/>
+      <c r="AC27" s="32"/>
+      <c r="AD27" s="32"/>
+      <c r="AE27" s="32"/>
+      <c r="AF27" s="32"/>
+      <c r="AG27" s="32"/>
+      <c r="AH27" s="33"/>
     </row>
     <row r="28" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="P28" s="42"/>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="43"/>
-      <c r="S28" s="43"/>
-      <c r="T28" s="43"/>
-      <c r="U28" s="43"/>
-      <c r="V28" s="43"/>
-      <c r="W28" s="43"/>
-      <c r="X28" s="43"/>
-      <c r="Y28" s="43"/>
-      <c r="Z28" s="43"/>
-      <c r="AA28" s="43"/>
-      <c r="AB28" s="43"/>
-      <c r="AC28" s="43"/>
-      <c r="AD28" s="43"/>
-      <c r="AE28" s="43"/>
-      <c r="AF28" s="43"/>
-      <c r="AG28" s="43"/>
-      <c r="AH28" s="44"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="32"/>
+      <c r="X28" s="32"/>
+      <c r="Y28" s="32"/>
+      <c r="Z28" s="32"/>
+      <c r="AA28" s="32"/>
+      <c r="AB28" s="32"/>
+      <c r="AC28" s="32"/>
+      <c r="AD28" s="32"/>
+      <c r="AE28" s="32"/>
+      <c r="AF28" s="32"/>
+      <c r="AG28" s="32"/>
+      <c r="AH28" s="33"/>
     </row>
     <row r="29" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="P29" s="42"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="43"/>
-      <c r="V29" s="43"/>
-      <c r="W29" s="43"/>
-      <c r="X29" s="43"/>
-      <c r="Y29" s="43"/>
-      <c r="Z29" s="43"/>
-      <c r="AA29" s="43"/>
-      <c r="AB29" s="43"/>
-      <c r="AC29" s="43"/>
-      <c r="AD29" s="43"/>
-      <c r="AE29" s="43"/>
-      <c r="AF29" s="43"/>
-      <c r="AG29" s="43"/>
-      <c r="AH29" s="44"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="32"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="32"/>
+      <c r="Y29" s="32"/>
+      <c r="Z29" s="32"/>
+      <c r="AA29" s="32"/>
+      <c r="AB29" s="32"/>
+      <c r="AC29" s="32"/>
+      <c r="AD29" s="32"/>
+      <c r="AE29" s="32"/>
+      <c r="AF29" s="32"/>
+      <c r="AG29" s="32"/>
+      <c r="AH29" s="33"/>
     </row>
     <row r="30" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="P30" s="42"/>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="43"/>
-      <c r="T30" s="43"/>
-      <c r="U30" s="43"/>
-      <c r="V30" s="43"/>
-      <c r="W30" s="43"/>
-      <c r="X30" s="43"/>
-      <c r="Y30" s="43"/>
-      <c r="Z30" s="43"/>
-      <c r="AA30" s="43"/>
-      <c r="AB30" s="43"/>
-      <c r="AC30" s="43"/>
-      <c r="AD30" s="43"/>
-      <c r="AE30" s="43"/>
-      <c r="AF30" s="43"/>
-      <c r="AG30" s="43"/>
-      <c r="AH30" s="44"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="32"/>
+      <c r="Y30" s="32"/>
+      <c r="Z30" s="32"/>
+      <c r="AA30" s="32"/>
+      <c r="AB30" s="32"/>
+      <c r="AC30" s="32"/>
+      <c r="AD30" s="32"/>
+      <c r="AE30" s="32"/>
+      <c r="AF30" s="32"/>
+      <c r="AG30" s="32"/>
+      <c r="AH30" s="33"/>
     </row>
     <row r="31" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="P31" s="42"/>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="43"/>
-      <c r="S31" s="43"/>
-      <c r="T31" s="43"/>
-      <c r="U31" s="43"/>
-      <c r="V31" s="43"/>
-      <c r="W31" s="43"/>
-      <c r="X31" s="43"/>
-      <c r="Y31" s="43"/>
-      <c r="Z31" s="43"/>
-      <c r="AA31" s="43"/>
-      <c r="AB31" s="43"/>
-      <c r="AC31" s="43"/>
-      <c r="AD31" s="43"/>
-      <c r="AE31" s="43"/>
-      <c r="AF31" s="43"/>
-      <c r="AG31" s="43"/>
-      <c r="AH31" s="44"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="32"/>
+      <c r="Y31" s="32"/>
+      <c r="Z31" s="32"/>
+      <c r="AA31" s="32"/>
+      <c r="AB31" s="32"/>
+      <c r="AC31" s="32"/>
+      <c r="AD31" s="32"/>
+      <c r="AE31" s="32"/>
+      <c r="AF31" s="32"/>
+      <c r="AG31" s="32"/>
+      <c r="AH31" s="33"/>
     </row>
     <row r="32" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="P32" s="42"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="43"/>
-      <c r="T32" s="43"/>
-      <c r="U32" s="43"/>
-      <c r="V32" s="43"/>
-      <c r="W32" s="43"/>
-      <c r="X32" s="43"/>
-      <c r="Y32" s="43"/>
-      <c r="Z32" s="43"/>
-      <c r="AA32" s="43"/>
-      <c r="AB32" s="43"/>
-      <c r="AC32" s="43"/>
-      <c r="AD32" s="43"/>
-      <c r="AE32" s="43"/>
-      <c r="AF32" s="43"/>
-      <c r="AG32" s="43"/>
-      <c r="AH32" s="44"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="32"/>
+      <c r="Y32" s="32"/>
+      <c r="Z32" s="32"/>
+      <c r="AA32" s="32"/>
+      <c r="AB32" s="32"/>
+      <c r="AC32" s="32"/>
+      <c r="AD32" s="32"/>
+      <c r="AE32" s="32"/>
+      <c r="AF32" s="32"/>
+      <c r="AG32" s="32"/>
+      <c r="AH32" s="33"/>
     </row>
     <row r="33" spans="16:34" x14ac:dyDescent="0.3">
-      <c r="P33" s="42"/>
-      <c r="Q33" s="43"/>
-      <c r="R33" s="43"/>
-      <c r="S33" s="43"/>
-      <c r="T33" s="43"/>
-      <c r="U33" s="43"/>
-      <c r="V33" s="43"/>
-      <c r="W33" s="43"/>
-      <c r="X33" s="43"/>
-      <c r="Y33" s="43"/>
-      <c r="Z33" s="43"/>
-      <c r="AA33" s="43"/>
-      <c r="AB33" s="43"/>
-      <c r="AC33" s="43"/>
-      <c r="AD33" s="43"/>
-      <c r="AE33" s="43"/>
-      <c r="AF33" s="43"/>
-      <c r="AG33" s="43"/>
-      <c r="AH33" s="44"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="32"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="32"/>
+      <c r="Y33" s="32"/>
+      <c r="Z33" s="32"/>
+      <c r="AA33" s="32"/>
+      <c r="AB33" s="32"/>
+      <c r="AC33" s="32"/>
+      <c r="AD33" s="32"/>
+      <c r="AE33" s="32"/>
+      <c r="AF33" s="32"/>
+      <c r="AG33" s="32"/>
+      <c r="AH33" s="33"/>
     </row>
     <row r="34" spans="16:34" x14ac:dyDescent="0.3">
-      <c r="P34" s="42"/>
-      <c r="Q34" s="43"/>
-      <c r="R34" s="43"/>
-      <c r="S34" s="43"/>
-      <c r="T34" s="43"/>
-      <c r="U34" s="43"/>
-      <c r="V34" s="43"/>
-      <c r="W34" s="43"/>
-      <c r="X34" s="43"/>
-      <c r="Y34" s="43"/>
-      <c r="Z34" s="43"/>
-      <c r="AA34" s="43"/>
-      <c r="AB34" s="43"/>
-      <c r="AC34" s="43"/>
-      <c r="AD34" s="43"/>
-      <c r="AE34" s="43"/>
-      <c r="AF34" s="43"/>
-      <c r="AG34" s="43"/>
-      <c r="AH34" s="44"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="32"/>
+      <c r="V34" s="32"/>
+      <c r="W34" s="32"/>
+      <c r="X34" s="32"/>
+      <c r="Y34" s="32"/>
+      <c r="Z34" s="32"/>
+      <c r="AA34" s="32"/>
+      <c r="AB34" s="32"/>
+      <c r="AC34" s="32"/>
+      <c r="AD34" s="32"/>
+      <c r="AE34" s="32"/>
+      <c r="AF34" s="32"/>
+      <c r="AG34" s="32"/>
+      <c r="AH34" s="33"/>
     </row>
     <row r="35" spans="16:34" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="P35" s="45"/>
-      <c r="Q35" s="46"/>
-      <c r="R35" s="46"/>
-      <c r="S35" s="46"/>
-      <c r="T35" s="46"/>
-      <c r="U35" s="46"/>
-      <c r="V35" s="46"/>
-      <c r="W35" s="46"/>
-      <c r="X35" s="46"/>
-      <c r="Y35" s="46"/>
-      <c r="Z35" s="46"/>
-      <c r="AA35" s="46"/>
-      <c r="AB35" s="46"/>
-      <c r="AC35" s="46"/>
-      <c r="AD35" s="46"/>
-      <c r="AE35" s="46"/>
-      <c r="AF35" s="46"/>
-      <c r="AG35" s="46"/>
-      <c r="AH35" s="47"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="35"/>
+      <c r="X35" s="35"/>
+      <c r="Y35" s="35"/>
+      <c r="Z35" s="35"/>
+      <c r="AA35" s="35"/>
+      <c r="AB35" s="35"/>
+      <c r="AC35" s="35"/>
+      <c r="AD35" s="35"/>
+      <c r="AE35" s="35"/>
+      <c r="AF35" s="35"/>
+      <c r="AG35" s="35"/>
+      <c r="AH35" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="K10:M10"/>
     <mergeCell ref="C24:J24"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:G17"/>
@@ -30069,11 +30127,6 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="H21:J21"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="K10:M10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/php/estadisticas_uo288066.xlsx
+++ b/php/estadisticas_uo288066.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sew2526\php\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A0AAA7-2346-41AC-9BE5-03D883788C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA05F479-33B3-48CA-B8A0-C73567CA8FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13749" xr2:uid="{EDA6C373-C3B0-4FB2-93F3-0BDE48218607}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13749" activeTab="5" xr2:uid="{EDA6C373-C3B0-4FB2-93F3-0BDE48218607}"/>
   </bookViews>
   <sheets>
     <sheet name="uo288066_db_resultados" sheetId="15" r:id="rId1"/>
@@ -26476,7 +26476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D35FF4-9EB2-46CA-A15D-A2D625484CEA}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -27473,8 +27473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26DE797-EEB2-4B58-B867-67BE01D99B3E}">
   <dimension ref="B1:R45"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:R45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -28953,8 +28953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758C81DB-CDD8-4CF0-B995-68970B44831E}">
   <dimension ref="B1:AH35"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA38" sqref="AA38"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
